--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -575,7 +575,7 @@
         <v>45922.69111111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45317</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>45107</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>45728.32841435185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45656.36435185185</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45656.38539351852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>45106</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45922.66782407407</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>45656.39114583333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>45656.36642361111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>45799.6280787037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45990.50856481482</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>45317</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>45513.47662037037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>45754.82484953704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45513.47328703704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>45432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45352</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44472</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44733</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44462.73393518518</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>45762.58939814815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44928</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44627.64710648148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45656.35826388889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45237.75653935185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>45653</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>45076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>45288</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>45635</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>46036.80538194445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>45751.37494212963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45677</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>45348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45301</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>45740.41236111111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44530</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44830</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>44586.38584490741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44449</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44536</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44319.44815972223</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>44733</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>44445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>44239</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44574.93475694444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44523</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44462.73725694444</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44489.87993055556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>44585</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44355</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>44733.53192129629</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44599</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44344.39458333333</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>44480</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>44462.73945601852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>44344</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>44351</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>44251</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44572</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>44614.63824074074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>44462.73247685185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>44516</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44502.34490740741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>44494</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>44351.63715277778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>44413.64280092593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>44361.51533564815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>45633.38069444444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>45672.48296296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>45602.65221064815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44900</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>45212</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>45279</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>45554</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>44839.57752314815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>45093</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>45684.59990740741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>45089.5193287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>44536</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6538,7 +6538,7 @@
         <v>45548.5928587963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>45580.50152777778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         <v>44960</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>45162</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>45365.57087962963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45183</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45568.63729166667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>44572</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>45737.35607638889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>44930.32969907407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>44634</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>45309.45153935185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>45551.59837962963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>45737.34603009259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>45754</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45596.72018518519</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44817.40947916666</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>45226</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45349</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44592</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45455.6478587963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>45559.47763888889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>45426.61703703704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>45748.50568287037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>45799.62091435185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>45799.5200462963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>45631.38447916666</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44981</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45800.5974074074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44820.35342592592</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45572.65665509259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44551</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>45699.37768518519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44624</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45540.65302083334</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>45722.69118055556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44991.81690972222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>45551.46081018518</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>45455.67287037037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>45889.63163194444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>45594.72869212963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>45425.60424768519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>45400.73114583334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>45890.56574074074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>45890.56453703704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45723.5541087963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>45894</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45895</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45901.60652777777</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45901.61446759259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45818.47643518518</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>45818.48547453704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>45901.62109953703</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44277</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>45901.6183912037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>45820</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>45905.56790509259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>45772.51366898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>45825.44777777778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>45907.52702546296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>45005.50252314815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>45911.6202662037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>45826.43283564815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45914</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>45915.53877314815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>45914</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44508.54208333333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>45826.43549768518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>45826.37506944445</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>45092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>45826.42263888889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>45826.42519675926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44418</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>45831.6530787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>45150.63820601852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>45919</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>45919.48144675926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>45922.65501157408</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>45832.43674768518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>45922.68894675926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>45349.63490740741</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>45925.44780092593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>45925</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>45929.64208333333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>45594.70923611111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>45929.65766203704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>45931.46130787037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>45656.34373842592</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>45656.36090277778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>45656.35608796297</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>45656.3703587963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>45440.87398148148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>45932</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>45656.36848379629</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>45656.41005787037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45656.41170138889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45656.4194212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>45646.66476851852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>45642.79674768518</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>45642</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>45656.35159722222</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>45656.39710648148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44834</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>45915.52861111111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>45470.58363425926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>45656.41354166667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>45841.48960648148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>45560.47459490741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>45939.41678240741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>45843.84158564815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>45112</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>45939.81811342593</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>44715</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>45945.6228125</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>45945.62987268518</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>45945.58512731481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>45847.42376157407</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>45945.59425925926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>45945.62559027778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>45845.7765162037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>45950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>45940.30331018518</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>45539.61159722223</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44998</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>45580.4344212963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>45588</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>45455.44231481481</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>45317</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45953.59706018519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>45638.55920138889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>45755.74113425926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>45771.71185185185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>45575.64230324074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45553.68366898148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>45226</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>45257</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>45630.84311342592</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45771.71726851852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>45965.59797453704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>45761.79899305556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>45761.8005324074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>45882.56203703704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>45672</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44683.68414351852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45771.49246527778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>45237.65777777778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45540.64853009259</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>45882.55833333333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>45436.61275462963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>45971.63524305556</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45667.57825231482</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45882.56133101852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45972.5234375</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45840.89650462963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45975.55197916667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45981.39862268518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45167</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45979.75311342593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45981.54017361111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>45981.54432870371</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>45981.55390046296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>45439.40318287037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>46026.49346064815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15996,7 +15996,7 @@
         <v>45985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
         <v>45672.51982638889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16110,7 +16110,7 @@
         <v>45664.68422453704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16167,7 +16167,7 @@
         <v>45495.56979166667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16224,7 +16224,7 @@
         <v>46027.824375</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>45985.49582175926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>45546.74638888889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>45986.35770833334</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>45988</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>44973</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>45764.47046296296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>45992.6203125</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>45314.36715277778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>45992.36221064815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>45693.67005787037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>45374</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44951</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>46036.80162037037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>46036.80075231481</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>46036.59365740741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>46036.79939814815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>46036.80240740741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>45456.57019675926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>46036.60586805556</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>45021</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>46036.58035879629</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>45988</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>45751.36189814815</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>45303.34233796296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>44550</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>45239</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>45761.80167824074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45999.71597222222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>45005</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>45594.71888888889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44551</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>45994.37936342593</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44924</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>46043.56429398148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>45141</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>46044.60664351852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>46007.69918981481</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>45279</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>45133</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>46007.3280787037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>45355</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>46009.67349537037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>45302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44578</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>45135</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>45107</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>45463.44024305556</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44265</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>45063</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44825</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45097</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>45349</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>45127</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>45168.39663194444</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>45097</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19545,7 +19545,7 @@
         <v>44956.56306712963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         <v>45071</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>45517.68732638889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44733</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>45705.62212962963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45058</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44509</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>44935</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45751.36060185185</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>45035.35192129629</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>45035.35361111111</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>45365</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>45251</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45215</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45754</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45635</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45758.57325231482</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45524.28465277778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45600.600625</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44817.41553240741</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44305.44487268518</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45167</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45688.49644675926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45251</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44655.59598379629</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>45238</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45771.71873842592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>45076</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44984</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>45034.61293981481</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>45693.6652662037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>45093.62900462963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>45475.70398148148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44531.34621527778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45554.46591435185</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>45028.35108796296</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>45255</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>45121</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>45366.69503472222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>45205.37854166667</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>45426.61425925926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>45484.46217592592</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44973</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44967</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45583.69771990741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44794</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>45188.65824074074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45197.63927083334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44582</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44431</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>45484</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>45317</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>45317</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45387</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45453.65474537037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45771.48996527777</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45553.68471064815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44959.8830787037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44823</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45776.53162037037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45644.62649305556</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>45777.65589120371</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>45782.58692129629</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>45782.58934027778</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         <v>45782.73740740741</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>45700.41292824074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45784.83086805556</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         <v>45715</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45737.66130787037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>45719.4530787037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>45791.61649305555</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>45743</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>45737.65680555555</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>45740.33630787037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>45740.41792824074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>45537.4814699074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -575,7 +575,7 @@
         <v>45922.69111111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45317</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>45107</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>45728.32841435185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45656.36435185185</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45656.38539351852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>45106</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45922.66782407407</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>45656.39114583333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>45656.36642361111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>45799.6280787037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45990.50856481482</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>45317</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>45513.47662037037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>45754.82484953704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45513.47328703704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>45432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45352</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44472</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44733</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44462.73393518518</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>45762.58939814815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44928</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44627.64710648148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45656.35826388889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>45237.75653935185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>45653</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>45076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>45288</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>45635</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>46036.80538194445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>45751.37494212963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45677</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>45348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45301</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>45740.41236111111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44530</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44830</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>44586.38584490741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44449</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44536</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44319.44815972223</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>44733</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>44445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>44239</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44574.93475694444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44523</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44462.73725694444</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44489.87993055556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>44585</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44355</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>44733.53192129629</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44599</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44344.39458333333</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>44529</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>44480</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>44462.73945601852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>44344</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>44351</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>44251</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>44572</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>44614.63824074074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>44462.73247685185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>44516</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44502.34490740741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>44494</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>44351.63715277778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>44413.64280092593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>44361.51533564815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>45633.38069444444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>45672.48296296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>45602.65221064815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>44900</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>45212</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>45279</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>45554</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>44839.57752314815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>45093</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>45684.59990740741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>45089.5193287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>44536</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6538,7 +6538,7 @@
         <v>45548.5928587963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>45580.50152777778</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         <v>44960</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>45162</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>45365.57087962963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45183</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>45568.63729166667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>44572</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>45737.35607638889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>44930.32969907407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>44634</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>45309.45153935185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>45551.59837962963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>45737.34603009259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>45754</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45596.72018518519</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44817.40947916666</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>45226</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45349</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44592</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45455.6478587963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>45559.47763888889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>45426.61703703704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>45748.50568287037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>45799.62091435185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>45799.5200462963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>45631.38447916666</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44981</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45800.5974074074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44820.35342592592</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45572.65665509259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>44551</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>45699.37768518519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44624</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45540.65302083334</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>45722.69118055556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>44991.81690972222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>45551.46081018518</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>45455.67287037037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>45889.63163194444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>45594.72869212963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>45425.60424768519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>45400.73114583334</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>45890.56574074074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>45890.56453703704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45723.5541087963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>45894</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45895</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45901.60652777777</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45901.61446759259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45818.47643518518</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>45818.48547453704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>45901.62109953703</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44277</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>45901.6183912037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>45820</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>45905.56790509259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>45772.51366898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>45825.44777777778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>45907.52702546296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>45005.50252314815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>45911.6202662037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>45826.43283564815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45914</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>45915.53877314815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>45914</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>44508.54208333333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>45826.43549768518</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>45826.37506944445</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>45092</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>45826.42263888889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>45826.42519675926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44418</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>45831.6530787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>45150.63820601852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>45919</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>45919.48144675926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>45922.65501157408</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>45832.43674768518</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>45922.68894675926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>45349.63490740741</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>45925.44780092593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>45925</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>45929.64208333333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>45594.70923611111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>45929.65766203704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>45931.46130787037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>45656.34373842592</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>45656.36090277778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11698,7 +11698,7 @@
         <v>45656.35608796297</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>45656.3703587963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>45440.87398148148</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>45932</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>45656.36848379629</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>45656.41005787037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45656.41170138889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45656.4194212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>45646.66476851852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>45642.79674768518</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>45642</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>45656.35159722222</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>45656.39710648148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44834</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>45915.52861111111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>45470.58363425926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>45656.41354166667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>45841.48960648148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>45560.47459490741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>45939.41678240741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>45843.84158564815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>45112</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>45939.81811342593</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>44715</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>45945.6228125</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>45945.62987268518</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>45945.58512731481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>45847.42376157407</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>45945.59425925926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>45945.62559027778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>45845.7765162037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>45950</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>45940.30331018518</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>45539.61159722223</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44998</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>45580.4344212963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>45588</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>45455.44231481481</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>45317</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45953.59706018519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>45638.55920138889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>45755.74113425926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>45771.71185185185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>45575.64230324074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45553.68366898148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>45226</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>45257</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>45630.84311342592</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45771.71726851852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>45965.59797453704</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>45761.79899305556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>45761.8005324074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>45882.56203703704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>45672</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44683.68414351852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45771.49246527778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>45237.65777777778</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45540.64853009259</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>45882.55833333333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>45436.61275462963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>45971.63524305556</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45667.57825231482</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15302,7 +15302,7 @@
         <v>45882.56133101852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15359,7 +15359,7 @@
         <v>45972.5234375</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         <v>45840.89650462963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45975.55197916667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45981.39862268518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>45167</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45979.75311342593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45981.54017361111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>45981.54432870371</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>45981.55390046296</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>45439.40318287037</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         <v>46026.49346064815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15996,7 +15996,7 @@
         <v>45985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
         <v>45672.51982638889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16110,7 +16110,7 @@
         <v>45664.68422453704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16167,7 +16167,7 @@
         <v>45495.56979166667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16224,7 +16224,7 @@
         <v>46027.824375</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>45985.49582175926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>45546.74638888889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>45986.35770833334</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>45988</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>44973</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>45764.47046296296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>45992.6203125</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>45314.36715277778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>45992.36221064815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>45693.67005787037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>45374</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44951</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>46036.80162037037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44928</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>46036.80075231481</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>46036.59365740741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>46036.79939814815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>46036.80240740741</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>45456.57019675926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         <v>44813</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>46036.60586805556</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>45021</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>46036.58035879629</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>45988</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>45751.36189814815</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         <v>45303.34233796296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         <v>44550</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         <v>45239</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         <v>45761.80167824074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>45999.71597222222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>45005</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>45594.71888888889</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44551</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>45994.37936342593</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44924</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>46043.56429398148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>45141</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>46044.60664351852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>46007.69918981481</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>45279</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>45133</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         <v>46007.3280787037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>45355</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>46009.67349537037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>45302</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44578</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>45135</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>45107</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>45463.44024305556</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44265</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>45063</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44825</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45097</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19317,7 +19317,7 @@
         <v>45349</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19374,7 +19374,7 @@
         <v>45127</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>45168.39663194444</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>45097</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19545,7 +19545,7 @@
         <v>44956.56306712963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         <v>45071</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>45517.68732638889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44733</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>45705.62212962963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45058</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44509</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44602</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>44935</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45751.36060185185</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>45035.35192129629</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>45035.35361111111</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>45365</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>45251</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45215</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45754</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>45635</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20519,7 +20519,7 @@
         <v>45758.57325231482</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>45524.28465277778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>45600.600625</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44817.41553240741</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44305.44487268518</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45167</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45688.49644675926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45251</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44655.59598379629</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>45238</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45771.71873842592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>45076</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44984</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>45034.61293981481</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>45693.6652662037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>45093.62900462963</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>45475.70398148148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44531.34621527778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>45554.46591435185</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>45028.35108796296</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>45255</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>45121</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>45366.69503472222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>45205.37854166667</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>45426.61425925926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>45484.46217592592</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44973</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44967</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45583.69771990741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44794</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>45188.65824074074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45197.63927083334</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44582</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44431</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>45484</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>45317</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>45317</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45387</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45453.65474537037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45771.48996527777</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45553.68471064815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44959.8830787037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>44823</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45776.53162037037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45644.62649305556</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>45777.65589120371</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>45782.58692129629</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>45782.58934027778</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         <v>45782.73740740741</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>45700.41292824074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45784.83086805556</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         <v>45715</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45737.66130787037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>45719.4530787037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>45791.61649305555</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>45743</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>45737.65680555555</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>45740.33630787037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23845,7 +23845,7 @@
         <v>45740.41792824074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23902,7 +23902,7 @@
         <v>45537.4814699074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>

--- a/Översikt UDDEVALLA.xlsx
+++ b/Översikt UDDEVALLA.xlsx
@@ -575,7 +575,7 @@
         <v>45922.69111111111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45317</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>45107</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>45728.32841435185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>45106</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>45656.36435185185</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45656.38539351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45922.66782407407</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>45656.39114583333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         <v>45656.36642361111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>45799.6280787037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         <v>45990.50856481482</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>45317</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>45513.47662037037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>45754.82484953704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45513.47328703704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>45432</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>45352</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44472</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         <v>44733</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>44462.73393518518</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>45762.58939814815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45071</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44928</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44627.64710648148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>45237.75653935185</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>45656.35826388889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>45076</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>45288</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         <v>45635</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>45653</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>45751.37494212963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>46036.80538194445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>45677</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>45348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45301</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>45740.41236111111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44530</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44830</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>44586.38584490741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44449</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>44536</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44319.44815972223</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>44733</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>44445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         <v>44574.93475694444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>44523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
         <v>44337</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44462.73725694444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         <v>44489.87993055556</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>44259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>44733.53192129629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>44599</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         <v>44344.39458333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>44480</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>44462.73945601852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>44344</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>44351</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>44251</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
         <v>44572</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>44614.63824074074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>44462.73247685185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         <v>44516</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>44502.34490740741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>44351.63715277778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>44413.64280092593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>44361.51533564815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>45633.38069444444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>45602.65221064815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>45672.48296296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>45212</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>45279</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>45554</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>44900</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>44839.57752314815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>45093</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>45684.59990740741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>45089.5193287037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>44536</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>45183</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6538,7 +6538,7 @@
         <v>45580.50152777778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>45548.5928587963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         <v>44960</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>45365.57087962963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>45162</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>45568.63729166667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>44572</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45737.35607638889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>44930.32969907407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44634</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>45309.45153935185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>45596.72018518519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>45551.59837962963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>45349</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>44817.40947916666</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>45226</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>45455.6478587963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44592</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>45559.47763888889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45426.61703703704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>45748.50568287037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44981</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45631.38447916666</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44820.35342592592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44991.81690972222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>45737.34603009259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45754</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>45594.72869212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45572.65665509259</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45425.60424768519</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44489</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45818.47643518518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>45818.48547453704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44551</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45699.37768518519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>45820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44277</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>45540.65302083334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>45825.44777777778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>45889.63163194444</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>45826.43283564815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>45890.56574074074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>45772.51366898148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>45890.56453703704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45826.43549768518</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>45826.37506944445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>45826.42263888889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>45826.42519675926</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>45894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>45831.6530787037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45895</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>45005.50252314815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>45832.43674768518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>44508.54208333333</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         <v>45901.60652777777</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>45901.61446759259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>45092</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>45901.62109953703</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45901.6183912037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>44418</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45150.63820601852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>45905.56790509259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45841.48960648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45907.52702546296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45349.63490740741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45911.6202662037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45843.84158564815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45914</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45915.53877314815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45914</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45847.42376157407</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45594.70923611111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>45845.7765162037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>45919</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>45919.48144675926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44834</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>45922.65501157408</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>45922.68894675926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>45588</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>45560.47459490741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>45455.44231481481</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>45925.44780092593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>45925</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>45929.64208333333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>45755.74113425926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>45929.65766203704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>45112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44715</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>45931.46130787037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45656.34373842592</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45656.36090277778</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>45656.35608796297</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>45656.3703587963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>45440.87398148148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>45932</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45656.36848379629</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>45656.41005787037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>45656.41170138889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45656.4194212963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>45646.66476851852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45642.79674768518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45642</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45656.35159722222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>45656.39710648148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>45915.52861111111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>45470.58363425926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>45656.41354166667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>45882.56203703704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>45672</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>45539.61159722223</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12883,7 +12883,7 @@
         <v>45771.49246527778</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12940,7 +12940,7 @@
         <v>44998</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12997,7 +12997,7 @@
         <v>45882.55833333333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>45882.56133101852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13111,7 +13111,7 @@
         <v>45580.4344212963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>45939.41678240741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>45317</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>45638.55920138889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>45939.81811342593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>45771.71185185185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>45840.89650462963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>45945.6228125</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>45945.62987268518</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>45945.58512731481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>45945.59425925926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>45945.62559027778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>45575.64230324074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>45553.68366898148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>45950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>45940.30331018518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>45226</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>45257</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>45630.84311342592</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>45771.71726851852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>45953.59706018519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45761.79899305556</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>45761.8005324074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44683.68414351852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>45237.65777777778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>45540.64853009259</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>45436.61275462963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>45667.57825231482</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>45965.59797453704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>45167</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>45439.40318287037</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45971.63524305556</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>45672.51982638889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>45664.68422453704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>45495.56979166667</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>45972.5234375</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>45546.74638888889</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>45975.55197916667</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>45981.39862268518</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>45979.75311342593</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>45981.54017361111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>45981.54432870371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>45981.55390046296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44973</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15649,7 +15649,7 @@
         <v>45764.47046296296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15706,7 +15706,7 @@
         <v>45985</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15763,7 +15763,7 @@
         <v>45985.49582175926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>45314.36715277778</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>45986.35770833334</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>45693.67005787037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>45374</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>44951</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>44928</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>45988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>45456.57019675926</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>45992.6203125</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44813</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>45021</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>45992.36221064815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>45751.36189814815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>46036.80162037037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>45303.34233796296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>44550</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>46036.80075231481</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>45239</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         <v>45761.80167824074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>46036.59365740741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>46036.79939814815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>46036.80240740741</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         <v>46036.60586805556</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>46036.58035879629</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>45988</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>45005</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>45594.71888888889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44551</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44924</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>45999.71597222222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>45994.37936342593</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>46043.56429398148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>45141</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>45279</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>46044.60664351852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>45133</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>46007.69918981481</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>45355</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         <v>46007.3280787037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44578</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>46009.67349537037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>45135</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>45302</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>45107</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>45463.44024305556</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44265</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>45063</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44825</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>45097</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>45349</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18685,7 +18685,7 @@
         <v>45127</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>45168.39663194444</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>46062.80136574074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>46062.75895833333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>45097</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44956.56306712963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>45071</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>45517.68732638889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44733</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45705.62212962963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>46026.49346064815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>45058</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>46071.66740740741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         <v>46027.824375</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19483,7 +19483,7 @@
         <v>46071.4437962963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>44509</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19597,7 +19597,7 @@
         <v>44602</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19654,7 +19654,7 @@
         <v>44935</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19711,7 +19711,7 @@
         <v>45751.36060185185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>45035.35192129629</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19825,7 +19825,7 @@
         <v>45035.35361111111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19882,7 +19882,7 @@
         <v>45365</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
         <v>45251</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20001,7 +20001,7 @@
         <v>45215</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20058,7 +20058,7 @@
         <v>45754</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20115,7 +20115,7 @@
         <v>45635</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20172,7 +20172,7 @@
         <v>45758.57325231482</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20229,7 +20229,7 @@
         <v>45524.28465277778</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>45600.600625</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
         <v>44817.41553240741</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>44305.44487268518</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20457,7 +20457,7 @@
         <v>45167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20514,7 +20514,7 @@
         <v>45688.49644675926</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>45251</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44655.59598379629</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>45238</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>45771.71873842592</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20804,7 +20804,7 @@
         <v>45076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>44984</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45034.61293981481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45693.6652662037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45093.62900462963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>45475.70398148148</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44531.34621527778</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>45554.46591435185</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>45028.35108796296</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>45255</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>45121</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>45366.69503472222</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>45205.37854166667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>45426.61425925926</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>45484.46217592592</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44973</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44967</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>45583.69771990741</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44794</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>45188.65824074074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>45197.63927083334</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44582</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44431</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45484</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>45317</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>45317</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>45387</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>45453.65474537037</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45771.48996527777</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45553.68471064815</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44959.8830787037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44823</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45776.53162037037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>45644.62649305556</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>45777.65589120371</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>45782.58692129629</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>45782.58934027778</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>45782.73740740741</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>45700.41292824074</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>45784.83086805556</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>45715</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>45737.66130787037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
         <v>45719.4530787037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>45791.61649305555</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>45743</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>45737.65680555555</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>45740.33630787037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>45740.41792824074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>45537.4814699074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>45799.62091435185</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>45799.5200462963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>45800.5974074074</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44624</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>45722.69118055556</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>45551.46081018518</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>45455.67287037037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>45400.73114583334</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24073,7 +24073,7 @@
         <v>45723.5541087963</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
